--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -67,13 +67,19 @@
     <t>poor</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>shit</t>
@@ -85,39 +91,36 @@
     <t>shame</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -130,157 +133,154 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>creative</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>hope</t>
@@ -289,39 +289,39 @@
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
@@ -334,16 +334,13 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>san</t>
@@ -713,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -803,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -832,37 +829,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -882,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9696969696969697</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -982,7 +979,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1000,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.9565217391304348</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1032,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1103,16 +1100,16 @@
         <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1132,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1203,16 +1200,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,37 +1229,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5384615384615384</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>12</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -1300,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5263157894736842</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8536585365853658</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L14">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4871794871794872</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8333333333333334</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4615384615384616</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.8297872340425532</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4324324324324325</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.828125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L17">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1524,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1532,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1550,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.8148148148148148</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1574,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1582,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3825503355704698</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3611111111111111</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1650,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3527131782945737</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C21">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1700,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7887323943661971</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L21">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M21">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1724,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3174603174603174</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1782,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3137254901960784</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1800,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1824,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1832,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2542372881355932</v>
+        <v>0.32</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1850,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.775</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L24">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="M24">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1882,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2372881355932203</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1900,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.7647058823529411</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1924,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2207792207792208</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C26">
         <v>17</v>
@@ -1950,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.7264150943396226</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L26">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1974,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1982,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2111111111111111</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2000,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2024,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2032,7 +2029,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.175</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2050,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.7125</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L28">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2074,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2082,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1706349206349206</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.6956521739130435</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2124,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2132,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1018766756032172</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2150,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.6944444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2174,21 +2171,45 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>339</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>0.6702127659574468</v>
+        <v>0.62</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2200,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.6458333333333334</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2226,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2252,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.6057441253263708</v>
+        <v>0.6005221932114883</v>
       </c>
       <c r="L34">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M34">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2278,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.5882352941176471</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2304,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2330,21 +2351,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.5813953488372093</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2356,21 +2377,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.5735294117647058</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L38">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M38">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2382,21 +2403,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.5714285714285714</v>
+        <v>0.55</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2408,21 +2429,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.5600000000000001</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2434,21 +2455,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.55</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2460,21 +2481,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.5168539325842697</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L42">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="M42">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2486,21 +2507,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.5152542372881356</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L43">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2512,21 +2533,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.5111111111111111</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2538,12 +2559,12 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K45">
         <v>0.5</v>
@@ -2569,16 +2590,16 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.4857142857142857</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2590,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.484375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2616,21 +2637,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.4838709677419355</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2642,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.475</v>
+        <v>0.4518828451882845</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2668,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.4520547945205479</v>
+        <v>0.4375</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2694,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.4518828451882845</v>
+        <v>0.425</v>
       </c>
       <c r="L51">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2720,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.4242424242424243</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2746,21 +2767,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.4230769230769231</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2772,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.4047619047619048</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2798,21 +2819,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.4</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2824,21 +2845,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.3428571428571429</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2850,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.3191489361702128</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2876,15 +2897,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.2542372881355932</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L58">
         <v>15</v>
@@ -2902,21 +2923,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.1944444444444444</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2928,21 +2949,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K60">
-        <v>0.1272727272727273</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2954,21 +2975,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K61">
-        <v>0.1221374045801527</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2980,21 +3001,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>115</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>0.1102362204724409</v>
+        <v>0.09375</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3006,21 +3027,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>113</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>0.1057692307692308</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L63">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3032,21 +3053,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>372</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>0.1028708133971292</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L64">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3058,21 +3079,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>375</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>0.09202453987730061</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3084,21 +3105,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>148</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K66">
-        <v>0.08372093023255814</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3110,21 +3131,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K67">
-        <v>0.07441860465116279</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3136,21 +3157,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>199</v>
+        <v>836</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K68">
-        <v>0.06823266219239374</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L68">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3162,21 +3183,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>833</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K69">
-        <v>0.06086956521739131</v>
+        <v>0.05198776758409786</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3188,21 +3209,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>216</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K70">
-        <v>0.0581039755351682</v>
+        <v>0.04217536071032187</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3214,21 +3235,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>308</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K71">
-        <v>0.04661487236403995</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="L71">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3240,99 +3261,99 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>859</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K72">
-        <v>0.04220779220779221</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>295</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K73">
-        <v>0.04</v>
+        <v>0.02897196261682243</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M73">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>624</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K74">
-        <v>0.0294392523364486</v>
+        <v>0.02674897119341564</v>
       </c>
       <c r="L74">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="N74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2077</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K75">
-        <v>0.02883506343713956</v>
+        <v>0.01756198347107438</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M75">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3344,111 +3365,59 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>842</v>
+        <v>951</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K76">
-        <v>0.02674897119341564</v>
+        <v>0.01547887778136085</v>
       </c>
       <c r="L76">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M76">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>473</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K77">
-        <v>0.02169421487603306</v>
+        <v>0.006255864873318737</v>
       </c>
       <c r="L77">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
-      <c r="J78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K78">
-        <v>0.0128783000643915</v>
-      </c>
-      <c r="L78">
-        <v>40</v>
-      </c>
-      <c r="M78">
-        <v>41</v>
-      </c>
-      <c r="N78">
-        <v>0.98</v>
-      </c>
-      <c r="O78">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17">
-      <c r="J79" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K79">
-        <v>0.0059430716296528</v>
-      </c>
-      <c r="L79">
-        <v>19</v>
-      </c>
-      <c r="M79">
-        <v>23</v>
-      </c>
-      <c r="N79">
-        <v>0.83</v>
-      </c>
-      <c r="O79">
-        <v>0.17</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
   </sheetData>
